--- a/data/trans_dic/IP16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,73</t>
+          <t>0,0; 19,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,71</t>
+          <t>0,0; 15,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,08</t>
+          <t>0,0; 39,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,85</t>
+          <t>0,0; 37,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,4</t>
+          <t>0,0; 17,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,29</t>
+          <t>0,0; 20,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,91</t>
+          <t>0,0; 24,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 14,7</t>
+          <t>1,53; 13,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 12,75</t>
+          <t>1,46; 13,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,82</t>
+          <t>0,0; 19,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,89</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,93</t>
+          <t>3,16; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,32</t>
+          <t>0,89; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,0; 5,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,29</t>
+          <t>1,52; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,29</t>
+          <t>2,53; 10,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,62</t>
+          <t>1,6; 8,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,52</t>
+          <t>0,66; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,98</t>
+          <t>3,99; 10,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,72</t>
+          <t>1,88; 7,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,52</t>
+          <t>0,27; 3,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,51</t>
+          <t>1,31; 5,25</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 19,94</t>
+          <t>2,04; 18,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 14,81</t>
+          <t>1,6; 13,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 25,19</t>
+          <t>4,68; 26,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,52</t>
+          <t>0,0; 16,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,8</t>
+          <t>0,0; 12,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,79</t>
+          <t>0,0; 13,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 14,52</t>
+          <t>2,49; 13,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 9,79</t>
+          <t>1,78; 9,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 15,89</t>
+          <t>3,48; 15,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,49</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,63</t>
+          <t>4,28; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,54</t>
+          <t>1,83; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,05</t>
+          <t>2,27; 9,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,69</t>
+          <t>1,71; 6,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,86</t>
+          <t>3,1; 9,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,88</t>
+          <t>2,26; 7,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,88</t>
+          <t>0,55; 4,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,52; 4,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,15</t>
+          <t>4,51; 9,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,39</t>
+          <t>2,48; 6,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,73</t>
+          <t>1,96; 5,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,45</t>
+          <t>1,33; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,49; 14,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 13,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>2,94; 11,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,98</t>
+          <t>1,61; 8,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,97</t>
+          <t>0,51; 6,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,05</t>
+          <t>3,54; 12,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,74</t>
+          <t>0,87; 8,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,98</t>
+          <t>0,0; 6,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>1,39; 6,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,97</t>
+          <t>4,12; 9,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 13,27</t>
+          <t>1,72; 6,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,88</t>
+          <t>0,35; 3,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>1,15; 4,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 12,22</t>
+          <t>0,0; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,67</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,43</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,73</t>
+          <t>2,05; 18,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,87</t>
+          <t>1,6; 13,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>4,69; 26,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,95</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,15</t>
+          <t>3,21; 14,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,04</t>
+          <t>1,72; 9,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,39</t>
+          <t>3,47; 15,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,25</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 18,73</t>
+          <t>3,11; 9,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,58</t>
+          <t>2,27; 8,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 26,23</t>
+          <t>0,55; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,45; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>4,11; 11,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,04</t>
+          <t>1,67; 7,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,7</t>
+          <t>2,51; 9,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>1,57; 6,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 13,84</t>
+          <t>4,58; 9,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,31</t>
+          <t>2,62; 6,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 15,89</t>
+          <t>1,74; 5,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>1,36; 4,52</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 11,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 7,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 9,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 6,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 9,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 7,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 4,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 4,77</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 9,2</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 6,39</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 5,77</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
